--- a/jpcore-r4/feature/swg5-薬剤コードの割当/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg5-薬剤コードの割当/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11634" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11627" uniqueCount="1253">
   <si>
     <t>Property</t>
   </si>
@@ -2921,7 +2921,7 @@
     <t>医薬品単位略号を識別するOID。固定値。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].code</t>
@@ -3115,6 +3115,9 @@
   </si>
   <si>
     <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.numerator.code</t>
@@ -25065,7 +25068,7 @@
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F183" t="s" s="2">
         <v>88</v>
@@ -25297,7 +25300,7 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F185" t="s" s="2">
         <v>88</v>
@@ -25411,7 +25414,7 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F186" t="s" s="2">
         <v>88</v>
@@ -25446,28 +25449,26 @@
         <v>80</v>
       </c>
       <c r="R186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X186" s="2"/>
+      <c r="Y186" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="S186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>80</v>
@@ -25983,7 +25984,7 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F191" t="s" s="2">
         <v>88</v>
@@ -26321,7 +26322,7 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F194" t="s" s="2">
         <v>88</v>
@@ -26553,7 +26554,7 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F196" t="s" s="2">
         <v>88</v>
@@ -26667,7 +26668,7 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F197" t="s" s="2">
         <v>88</v>
@@ -26702,28 +26703,26 @@
         <v>80</v>
       </c>
       <c r="R197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X197" s="2"/>
+      <c r="Y197" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="S197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y197" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z197" t="s" s="2">
         <v>80</v>
@@ -28093,13 +28092,11 @@
         <v>80</v>
       </c>
       <c r="W209" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X209" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>80</v>
+        <v>998</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>80</v>
@@ -28149,7 +28146,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28175,16 +28172,16 @@
         <v>108</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
@@ -28265,7 +28262,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28291,10 +28288,10 @@
         <v>949</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M211" t="s" s="2">
         <v>979</v>
@@ -28379,7 +28376,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28491,7 +28488,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28605,7 +28602,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28721,7 +28718,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28839,7 +28836,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28955,7 +28952,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29015,13 +29012,11 @@
         <v>80</v>
       </c>
       <c r="W217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X217" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>80</v>
+        <v>998</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>80</v>
@@ -29071,7 +29066,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29097,16 +29092,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29187,7 +29182,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29213,16 +29208,16 @@
         <v>915</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>80</v>
@@ -29271,7 +29266,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29292,7 +29287,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29303,7 +29298,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29415,7 +29410,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29529,7 +29524,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29645,7 +29640,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29763,7 +29758,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29879,7 +29874,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29939,13 +29934,11 @@
         <v>80</v>
       </c>
       <c r="W225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X225" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>80</v>
+        <v>998</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -29995,7 +29988,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30021,16 +30014,16 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30111,7 +30104,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30137,16 +30130,16 @@
         <v>915</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M227" t="s" s="2">
         <v>979</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30195,7 +30188,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30216,7 +30209,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30227,7 +30220,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30339,7 +30332,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30453,7 +30446,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30569,7 +30562,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30687,7 +30680,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30803,7 +30796,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30863,13 +30856,11 @@
         <v>80</v>
       </c>
       <c r="W233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>80</v>
+        <v>998</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>80</v>
@@ -30919,7 +30910,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30945,16 +30936,16 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -31035,7 +31026,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31058,13 +31049,13 @@
         <v>80</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -31115,7 +31106,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31133,10 +31124,10 @@
         <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
@@ -31147,7 +31138,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31259,7 +31250,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31369,10 +31360,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>80</v>
@@ -31394,13 +31385,13 @@
         <v>80</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31483,7 +31474,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31595,7 +31586,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31707,7 +31698,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31733,13 +31724,13 @@
         <v>102</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
@@ -31747,7 +31738,7 @@
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="R241" t="s" s="2">
         <v>80</v>
@@ -31789,7 +31780,7 @@
         <v>80</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>88</v>
@@ -31821,7 +31812,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31847,10 +31838,10 @@
         <v>188</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31899,7 +31890,7 @@
         <v>306</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31931,10 +31922,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>80</v>
@@ -31959,10 +31950,10 @@
         <v>188</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -32013,7 +32004,7 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
@@ -32045,7 +32036,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32157,7 +32148,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32271,7 +32262,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32335,7 +32326,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>80</v>
@@ -32385,7 +32376,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32411,13 +32402,13 @@
         <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>368</v>
@@ -32501,10 +32492,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>80</v>
@@ -32526,13 +32517,13 @@
         <v>80</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -32615,7 +32606,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32731,7 +32722,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32754,16 +32745,16 @@
         <v>80</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32813,7 +32804,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32834,7 +32825,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32845,7 +32836,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32957,7 +32948,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33071,7 +33062,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33187,7 +33178,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33213,10 +33204,10 @@
         <v>915</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="M254" t="s" s="2">
         <v>979</v>
@@ -33269,7 +33260,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33290,7 +33281,7 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
@@ -33301,7 +33292,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33413,7 +33404,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33527,7 +33518,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33643,7 +33634,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33761,7 +33752,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33877,7 +33868,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33937,13 +33928,11 @@
         <v>80</v>
       </c>
       <c r="W260" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X260" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X260" s="2"/>
       <c r="Y260" t="s" s="2">
-        <v>80</v>
+        <v>998</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>80</v>
@@ -33993,7 +33982,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34019,16 +34008,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34109,7 +34098,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34135,10 +34124,10 @@
         <v>652</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>979</v>
@@ -34191,7 +34180,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34212,7 +34201,7 @@
         <v>80</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
@@ -34223,7 +34212,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34335,7 +34324,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34449,7 +34438,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34565,7 +34554,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34683,7 +34672,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34799,7 +34788,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34915,7 +34904,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34941,16 +34930,16 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
@@ -35031,7 +35020,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35057,10 +35046,10 @@
         <v>652</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>979</v>
@@ -35113,7 +35102,7 @@
         <v>80</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>78</v>
@@ -35134,7 +35123,7 @@
         <v>80</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="AM270" t="s" s="2">
         <v>80</v>
@@ -35145,7 +35134,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35257,7 +35246,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35371,7 +35360,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35487,7 +35476,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35605,7 +35594,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35721,7 +35710,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35837,7 +35826,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35863,16 +35852,16 @@
         <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
@@ -35953,7 +35942,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -35979,16 +35968,16 @@
         <v>217</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36037,7 +36026,7 @@
         <v>80</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>78</v>
@@ -36055,10 +36044,10 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="AL278" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>80</v>
@@ -36069,7 +36058,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36181,7 +36170,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36295,7 +36284,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36321,13 +36310,13 @@
         <v>429</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
@@ -36377,7 +36366,7 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>78</v>
@@ -36386,7 +36375,7 @@
         <v>88</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>100</v>
@@ -36398,18 +36387,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN281" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36435,20 +36424,20 @@
         <v>429</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P282" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="Q282" t="s" s="2">
         <v>80</v>
@@ -36493,7 +36482,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36502,7 +36491,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36514,18 +36503,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36551,13 +36540,13 @@
         <v>775</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
@@ -36607,7 +36596,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36625,21 +36614,21 @@
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="AL283" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="AM283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN283" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36665,10 +36654,10 @@
         <v>915</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="M284" t="s" s="2">
         <v>979</v>
@@ -36721,7 +36710,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36739,21 +36728,21 @@
         <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="AM284" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36865,7 +36854,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36979,7 +36968,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37005,10 +36994,10 @@
         <v>658</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="M287" t="s" s="2">
         <v>985</v>
@@ -37095,7 +37084,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37213,7 +37202,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37239,10 +37228,10 @@
         <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="M289" t="s" s="2">
         <v>567</v>
@@ -37329,7 +37318,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37355,10 +37344,10 @@
         <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="M290" t="s" s="2">
         <v>491</v>
@@ -37374,7 +37363,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>934</v>
+        <v>998</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37445,7 +37434,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37471,16 +37460,16 @@
         <v>108</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
@@ -37561,7 +37550,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37587,13 +37576,13 @@
         <v>652</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
@@ -37643,7 +37632,7 @@
         <v>80</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>78</v>
@@ -37661,10 +37650,10 @@
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>80</v>
@@ -37675,7 +37664,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37787,7 +37776,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37901,7 +37890,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37927,10 +37916,10 @@
         <v>658</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="M295" t="s" s="2">
         <v>985</v>
@@ -38017,7 +38006,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38135,7 +38124,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38161,10 +38150,10 @@
         <v>90</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="M297" t="s" s="2">
         <v>567</v>
@@ -38251,7 +38240,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38277,10 +38266,10 @@
         <v>102</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="M298" t="s" s="2">
         <v>491</v>
@@ -38367,7 +38356,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38393,16 +38382,16 @@
         <v>108</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
@@ -38483,7 +38472,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38509,10 +38498,10 @@
         <v>224</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>425</v>
@@ -38565,7 +38554,7 @@
         <v>80</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>78</v>
@@ -38586,7 +38575,7 @@
         <v>80</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="AM300" t="s" s="2">
         <v>463</v>
@@ -38597,7 +38586,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38620,13 +38609,13 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -38677,7 +38666,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38695,10 +38684,10 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38709,7 +38698,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38821,7 +38810,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38935,7 +38924,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39051,7 +39040,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39077,13 +39066,13 @@
         <v>188</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
@@ -39113,7 +39102,7 @@
       </c>
       <c r="X305" s="2"/>
       <c r="Y305" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>80</v>
@@ -39131,7 +39120,7 @@
         <v>80</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>88</v>
@@ -39149,21 +39138,21 @@
         <v>80</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN305" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39275,7 +39264,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39389,7 +39378,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39415,10 +39404,10 @@
         <v>318</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="M308" t="s" s="2">
         <v>867</v>
@@ -39505,7 +39494,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39617,7 +39606,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39731,7 +39720,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39757,10 +39746,10 @@
         <v>102</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="M311" t="s" s="2">
         <v>331</v>
@@ -39773,7 +39762,7 @@
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="R311" t="s" s="2">
         <v>80</v>
@@ -39847,7 +39836,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39961,7 +39950,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -39987,10 +39976,10 @@
         <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
@@ -40075,7 +40064,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40101,10 +40090,10 @@
         <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="M314" s="2"/>
       <c r="N314" t="s" s="2">
@@ -40189,7 +40178,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40215,13 +40204,13 @@
         <v>288</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="N315" t="s" s="2">
         <v>360</v>
@@ -40305,7 +40294,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40331,13 +40320,13 @@
         <v>90</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>368</v>
@@ -40421,7 +40410,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40447,13 +40436,13 @@
         <v>188</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" t="s" s="2">
@@ -40482,10 +40471,10 @@
         <v>255</v>
       </c>
       <c r="X317" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="Z317" t="s" s="2">
         <v>80</v>
@@ -40503,7 +40492,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40521,21 +40510,21 @@
         <v>80</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN317" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40558,13 +40547,13 @@
         <v>80</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>425</v>
@@ -40617,7 +40606,7 @@
         <v>80</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>78</v>
@@ -40632,13 +40621,13 @@
         <v>100</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="AL318" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="AM318" t="s" s="2">
         <v>80</v>
@@ -40649,11 +40638,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -40672,16 +40661,16 @@
         <v>80</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" t="s" s="2">
@@ -40731,7 +40720,7 @@
         <v>80</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>78</v>
@@ -40752,7 +40741,7 @@
         <v>80</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>80</v>
@@ -40763,7 +40752,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40786,16 +40775,16 @@
         <v>80</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" t="s" s="2">
@@ -40845,7 +40834,7 @@
         <v>80</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>78</v>
@@ -40860,13 +40849,13 @@
         <v>100</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="AK320" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL320" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="AM320" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/feature/swg5-薬剤コードの割当/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg5-薬剤コードの割当/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -3117,9 +3117,6 @@
     <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.numerator.code</t>
   </si>
   <si>
@@ -3617,6 +3614,9 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -28096,7 +28096,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>998</v>
+        <v>934</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>80</v>
@@ -28146,7 +28146,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28172,16 +28172,16 @@
         <v>108</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L210" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="L210" t="s" s="2">
+      <c r="M210" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="M210" t="s" s="2">
+      <c r="N210" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
@@ -28262,7 +28262,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28288,10 +28288,10 @@
         <v>949</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M211" t="s" s="2">
         <v>979</v>
@@ -28376,7 +28376,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28488,7 +28488,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28602,7 +28602,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28718,7 +28718,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28836,7 +28836,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28952,7 +28952,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29016,7 +29016,7 @@
       </c>
       <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>998</v>
+        <v>934</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>80</v>
@@ -29066,7 +29066,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29092,16 +29092,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L218" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="M218" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="M218" t="s" s="2">
+      <c r="N218" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29182,7 +29182,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29208,16 +29208,16 @@
         <v>915</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>1014</v>
       </c>
-      <c r="L219" t="s" s="2">
-        <v>1014</v>
-      </c>
-      <c r="M219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>1015</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>1016</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>80</v>
@@ -29266,7 +29266,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29287,7 +29287,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29298,7 +29298,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29410,7 +29410,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29524,7 +29524,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29640,7 +29640,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29758,7 +29758,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29874,7 +29874,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29938,7 +29938,7 @@
       </c>
       <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>998</v>
+        <v>934</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -29988,7 +29988,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30014,16 +30014,16 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L226" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="L226" t="s" s="2">
+      <c r="M226" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="M226" t="s" s="2">
+      <c r="N226" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30104,7 +30104,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30130,16 +30130,16 @@
         <v>915</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="L227" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>1028</v>
       </c>
       <c r="M227" t="s" s="2">
         <v>979</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30188,7 +30188,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30209,7 +30209,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30220,7 +30220,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30332,7 +30332,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30446,7 +30446,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30562,7 +30562,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30680,7 +30680,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30796,7 +30796,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30860,7 +30860,7 @@
       </c>
       <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>998</v>
+        <v>934</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>80</v>
@@ -30910,7 +30910,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30936,16 +30936,16 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="M234" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="M234" t="s" s="2">
+      <c r="N234" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -31026,7 +31026,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31049,13 +31049,13 @@
         <v>80</v>
       </c>
       <c r="J235" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="K235" t="s" s="2">
         <v>1039</v>
       </c>
-      <c r="K235" t="s" s="2">
+      <c r="L235" t="s" s="2">
         <v>1040</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>1041</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -31106,7 +31106,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31124,10 +31124,10 @@
         <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
+        <v>1041</v>
+      </c>
+      <c r="AL235" t="s" s="2">
         <v>1042</v>
-      </c>
-      <c r="AL235" t="s" s="2">
-        <v>1043</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
@@ -31138,7 +31138,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31250,7 +31250,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31360,10 +31360,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="B238" t="s" s="2">
         <v>1045</v>
-      </c>
-      <c r="B238" t="s" s="2">
-        <v>1046</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>80</v>
@@ -31385,13 +31385,13 @@
         <v>80</v>
       </c>
       <c r="J238" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="K238" t="s" s="2">
         <v>1047</v>
       </c>
-      <c r="K238" t="s" s="2">
+      <c r="L238" t="s" s="2">
         <v>1048</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>1049</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31474,7 +31474,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31586,7 +31586,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31698,7 +31698,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31724,13 +31724,13 @@
         <v>102</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>1053</v>
       </c>
-      <c r="L241" t="s" s="2">
+      <c r="M241" t="s" s="2">
         <v>1054</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>1055</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
@@ -31738,49 +31738,49 @@
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="R241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE241" t="s" s="2">
         <v>1056</v>
-      </c>
-      <c r="R241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE241" t="s" s="2">
-        <v>1057</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>88</v>
@@ -31812,7 +31812,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31838,10 +31838,10 @@
         <v>188</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31890,7 +31890,7 @@
         <v>306</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31922,10 +31922,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>80</v>
@@ -31950,10 +31950,10 @@
         <v>188</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>1062</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>1063</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -32004,7 +32004,7 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
@@ -32036,7 +32036,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32148,7 +32148,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32262,7 +32262,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32326,7 +32326,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>80</v>
@@ -32376,7 +32376,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32402,13 +32402,13 @@
         <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="L247" t="s" s="2">
         <v>1069</v>
       </c>
-      <c r="L247" t="s" s="2">
+      <c r="M247" t="s" s="2">
         <v>1070</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>1071</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>368</v>
@@ -32492,10 +32492,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>80</v>
@@ -32517,13 +32517,13 @@
         <v>80</v>
       </c>
       <c r="J248" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="K248" t="s" s="2">
         <v>1073</v>
       </c>
-      <c r="K248" t="s" s="2">
-        <v>1074</v>
-      </c>
       <c r="L248" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -32606,7 +32606,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32722,7 +32722,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32745,16 +32745,16 @@
         <v>80</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>1077</v>
       </c>
-      <c r="L250" t="s" s="2">
+      <c r="M250" t="s" s="2">
         <v>1078</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>1079</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32804,7 +32804,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32825,7 +32825,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32836,7 +32836,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32948,7 +32948,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33062,7 +33062,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33178,7 +33178,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33204,10 +33204,10 @@
         <v>915</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>1085</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>1086</v>
       </c>
       <c r="M254" t="s" s="2">
         <v>979</v>
@@ -33260,7 +33260,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33281,7 +33281,7 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
@@ -33292,7 +33292,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33404,7 +33404,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33518,7 +33518,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33634,7 +33634,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33752,7 +33752,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33868,7 +33868,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33932,7 +33932,7 @@
       </c>
       <c r="X260" s="2"/>
       <c r="Y260" t="s" s="2">
-        <v>998</v>
+        <v>934</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>80</v>
@@ -33982,7 +33982,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34008,16 +34008,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="L261" t="s" s="2">
+      <c r="M261" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="M261" t="s" s="2">
+      <c r="N261" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34098,7 +34098,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34124,10 +34124,10 @@
         <v>652</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>1095</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>1096</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>1097</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>979</v>
@@ -34180,7 +34180,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34201,7 +34201,7 @@
         <v>80</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
@@ -34212,7 +34212,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34324,7 +34324,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34438,7 +34438,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34554,7 +34554,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34672,7 +34672,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34788,7 +34788,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34904,7 +34904,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34930,16 +34930,16 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="M269" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="M269" t="s" s="2">
+      <c r="N269" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
@@ -35020,7 +35020,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35046,10 +35046,10 @@
         <v>652</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>1106</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>1107</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>1108</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>979</v>
@@ -35102,7 +35102,7 @@
         <v>80</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>78</v>
@@ -35123,7 +35123,7 @@
         <v>80</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AM270" t="s" s="2">
         <v>80</v>
@@ -35134,7 +35134,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35246,7 +35246,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35360,7 +35360,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35476,7 +35476,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35594,7 +35594,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35710,7 +35710,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35826,7 +35826,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35852,16 +35852,16 @@
         <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="L277" t="s" s="2">
+      <c r="M277" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="M277" t="s" s="2">
+      <c r="N277" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
@@ -35942,7 +35942,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -35968,16 +35968,16 @@
         <v>217</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>1117</v>
       </c>
-      <c r="L278" t="s" s="2">
+      <c r="M278" t="s" s="2">
         <v>1118</v>
       </c>
-      <c r="M278" t="s" s="2">
+      <c r="N278" t="s" s="2">
         <v>1119</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>1120</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36026,7 +36026,7 @@
         <v>80</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>78</v>
@@ -36044,10 +36044,10 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="AL278" t="s" s="2">
         <v>1121</v>
-      </c>
-      <c r="AL278" t="s" s="2">
-        <v>1122</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>80</v>
@@ -36058,7 +36058,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36170,7 +36170,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36284,7 +36284,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36310,13 +36310,13 @@
         <v>429</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>1126</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="M281" t="s" s="2">
         <v>1127</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>1128</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
@@ -36366,16 +36366,16 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="AF281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG281" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH281" t="s" s="2">
         <v>1129</v>
-      </c>
-      <c r="AF281" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG281" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH281" t="s" s="2">
-        <v>1130</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>100</v>
@@ -36387,18 +36387,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
+        <v>1130</v>
+      </c>
+      <c r="AM281" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN281" t="s" s="2">
         <v>1131</v>
-      </c>
-      <c r="AM281" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN281" t="s" s="2">
-        <v>1132</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36424,66 +36424,66 @@
         <v>429</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>1133</v>
+      </c>
+      <c r="L282" t="s" s="2">
         <v>1134</v>
       </c>
-      <c r="L282" t="s" s="2">
+      <c r="M282" t="s" s="2">
         <v>1135</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>1136</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P282" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="Q282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE282" t="s" s="2">
         <v>1137</v>
       </c>
-      <c r="Q282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE282" t="s" s="2">
-        <v>1138</v>
-      </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
       </c>
@@ -36491,7 +36491,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36503,18 +36503,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="AM282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN282" t="s" s="2">
         <v>1139</v>
-      </c>
-      <c r="AM282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN282" t="s" s="2">
-        <v>1140</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36540,13 +36540,13 @@
         <v>775</v>
       </c>
       <c r="K283" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="L283" t="s" s="2">
         <v>1142</v>
       </c>
-      <c r="L283" t="s" s="2">
+      <c r="M283" t="s" s="2">
         <v>1143</v>
-      </c>
-      <c r="M283" t="s" s="2">
-        <v>1144</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
@@ -36596,7 +36596,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36614,21 +36614,21 @@
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
+        <v>1144</v>
+      </c>
+      <c r="AL283" t="s" s="2">
         <v>1145</v>
       </c>
-      <c r="AL283" t="s" s="2">
+      <c r="AM283" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN283" t="s" s="2">
         <v>1146</v>
-      </c>
-      <c r="AM283" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN283" t="s" s="2">
-        <v>1147</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36654,10 +36654,10 @@
         <v>915</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>1148</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>1149</v>
-      </c>
-      <c r="L284" t="s" s="2">
-        <v>1150</v>
       </c>
       <c r="M284" t="s" s="2">
         <v>979</v>
@@ -36710,7 +36710,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36728,21 +36728,21 @@
         <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="AL284" t="s" s="2">
         <v>1151</v>
       </c>
-      <c r="AL284" t="s" s="2">
+      <c r="AM284" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN284" t="s" s="2">
         <v>1152</v>
-      </c>
-      <c r="AM284" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN284" t="s" s="2">
-        <v>1153</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36854,7 +36854,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36968,7 +36968,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -36994,10 +36994,10 @@
         <v>658</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="M287" t="s" s="2">
         <v>985</v>
@@ -37084,7 +37084,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37202,7 +37202,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37228,10 +37228,10 @@
         <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="M289" t="s" s="2">
         <v>567</v>
@@ -37318,7 +37318,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37344,10 +37344,10 @@
         <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>1161</v>
+      </c>
+      <c r="L290" t="s" s="2">
         <v>1162</v>
-      </c>
-      <c r="L290" t="s" s="2">
-        <v>1163</v>
       </c>
       <c r="M290" t="s" s="2">
         <v>491</v>
@@ -37363,7 +37363,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>998</v>
+        <v>1163</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37466,10 +37466,10 @@
         <v>1165</v>
       </c>
       <c r="M291" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="N291" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N291" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
@@ -38388,10 +38388,10 @@
         <v>1184</v>
       </c>
       <c r="M299" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="N299" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
@@ -38609,7 +38609,7 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K301" t="s" s="2">
         <v>1190</v>
@@ -40320,13 +40320,13 @@
         <v>90</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="L316" t="s" s="2">
         <v>1069</v>
       </c>
-      <c r="L316" t="s" s="2">
+      <c r="M316" t="s" s="2">
         <v>1070</v>
-      </c>
-      <c r="M316" t="s" s="2">
-        <v>1071</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>368</v>
